--- a/Ruth Advanced Excel Projects.xlsx
+++ b/Ruth Advanced Excel Projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igbus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igbus\Desktop\Ruth Excel Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD63D4-6585-4328-8440-20CB35F8E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EE0A29-D7BA-4140-AA86-111C6A4DD50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="IF FUNCTION 01 Practice" sheetId="3" r:id="rId1"/>
@@ -3089,7 +3089,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3099,73 +3099,6 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3599,6 +3532,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3648,6 +3611,33 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3685,6 +3675,16 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3851,11 +3851,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="C4:E15" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="C4:E15" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="C4:E15" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4E64CFB-9945-4C15-A551-B8D7EF06A537}" name="PROJECTS"/>
-    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="28" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{7FA28F0A-B617-4825-892A-86E0AF338E4A}" name="STATUS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3863,13 +3863,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="C4:F15" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="C4:F15" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="C4:F15" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E29561B7-DC0C-4930-BB09-664400E9B874}" name="PROJECTS"/>
-    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="26" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS" dataDxfId="21">
       <calculatedColumnFormula>IF(E5=1, "COMPLETE", IF(E5&gt;0, "IN PROGRESS", "PAST DUE"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3878,18 +3878,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23" dataCellStyle="Normal_Customer Info">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16" dataCellStyle="Normal_Customer Info">
   <autoFilter ref="A1:I92" xr:uid="{33761F1C-CD1E-4D9D-A116-776D8C10A0F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="22" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="21" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="20" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="19" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="18" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="17" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="16" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="15" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="14" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="15" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="14" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="13" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="12" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="11" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="10" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="9" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="8" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="7" dataCellStyle="Normal_Customer Info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3909,13 +3909,13 @@
     <tableColumn id="4" xr3:uid="{B30C424E-11CD-470B-92EB-D5D54D805653}" name="YEAR">
       <calculatedColumnFormula>MID(B11,7,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="6">
       <calculatedColumnFormula>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP($F11,$B$25:$C$29,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP($C11,$E$25:$F$30,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3927,7 +3927,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABB36226-4DEB-4AA0-8FF0-40A243373A73}" name="Table4" displayName="Table4" ref="B25:C29" totalsRowShown="0">
   <autoFilter ref="B25:C29" xr:uid="{E7DC5DC1-B19A-4360-A7B3-4F8DA22B397E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{39DA51BD-1853-4265-B942-70D42DC20F6D}" name="LEVEL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3941,7 +3941,7 @@
     <sortCondition ref="E25:E30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1E32367B-22DC-4FA7-9191-F28D5A07A69A}" name="CLASS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3954,8 +3954,8 @@
     <sortCondition ref="C4:C124"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{1EC25A71-CFAD-4981-86D7-F95D30A8DD08}" name="YEAR"/>
     <tableColumn id="4" xr3:uid="{224F018D-7E96-4C67-952B-CD3DDA3E031B}" name="RATING"/>
   </tableColumns>
@@ -4434,7 +4434,7 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D15">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4669,13 +4669,13 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="PAST DUE">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="PAST DUE">
       <formula>NOT(ISERROR(SEARCH("PAST DUE",F5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>" "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4797,7 +4797,7 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="GERMANY">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="GERMANY">
       <formula>NOT(ISERROR(SEARCH("GERMANY",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4929,7 +4929,7 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="AROUT">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="AROUT">
       <formula>NOT(ISERROR(SEARCH("AROUT",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8026,8 +8026,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:M124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8097,16 +8097,19 @@
         <v>838</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
       <c r="K5" s="5">
         <v>2014</v>
       </c>
       <c r="L5" s="13">
         <f ca="1">SUMIF(F4:F124,J5,D5:D124)</f>
-        <v>5650236562</v>
-      </c>
-      <c r="M5" s="41"/>
+        <v>13007007422</v>
+      </c>
+      <c r="M5" s="41">
+        <f>COUNTIF(F8:F127,J5)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
@@ -10039,7 +10042,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
